--- a/Reports/Recalculation/HOT_autoRecalc/HOT_autoRecalc.xlsx
+++ b/Reports/Recalculation/HOT_autoRecalc/HOT_autoRecalc.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="68">
   <si>
     <t>t1</t>
   </si>
@@ -33,9 +33,6 @@
     <t>Block</t>
   </si>
   <si>
-    <t>Block1</t>
-  </si>
-  <si>
     <t>EndTable</t>
   </si>
   <si>
@@ -48,18 +45,6 @@
     <t>1==1</t>
   </si>
   <si>
-    <t>Улица</t>
-  </si>
-  <si>
-    <t>Дом</t>
-  </si>
-  <si>
-    <t>$t1['name_street']</t>
-  </si>
-  <si>
-    <t>$t1['house']</t>
-  </si>
-  <si>
     <t>$t1['value4']</t>
   </si>
   <si>
@@ -94,6 +79,129 @@
   </si>
   <si>
     <t>$t1['area_UL']</t>
+  </si>
+  <si>
+    <t>Расчетный норматив потребления коммунальной услуги по отоплению, Гкал/м2</t>
+  </si>
+  <si>
+    <t>$t1['standard']</t>
+  </si>
+  <si>
+    <t>$t1['V_odn']</t>
+  </si>
+  <si>
+    <t>$t1['V_UL']</t>
+  </si>
+  <si>
+    <t>$t1['new_standard']</t>
+  </si>
+  <si>
+    <t>t2</t>
+  </si>
+  <si>
+    <t>key($this-&gt;tt2)!==null</t>
+  </si>
+  <si>
+    <t>$SHEET=''</t>
+  </si>
+  <si>
+    <t>Block5</t>
+  </si>
+  <si>
+    <t>"СОГЛАСОВАНО"</t>
+  </si>
+  <si>
+    <t>Генеральный директор</t>
+  </si>
+  <si>
+    <t>ООО "ЭнергоКомпания"</t>
+  </si>
+  <si>
+    <t>___________Игошин Д.В.</t>
+  </si>
+  <si>
+    <t>"______"___________202  г</t>
+  </si>
+  <si>
+    <t>$this-&gt;tt1 = $t2['table1'];</t>
+  </si>
+  <si>
+    <t>"Корректировка потребления тепловой энергии согласно показаний ОДПУ по жилому дому, расположенному в пгт Бачатский, ".$t2['addres_house'].", за период с 01.01.2022г по 31.12.2022г."</t>
+  </si>
+  <si>
+    <t>Group</t>
+  </si>
+  <si>
+    <t>SUMMTable</t>
+  </si>
+  <si>
+    <t>EndGroup</t>
+  </si>
+  <si>
+    <t>$FSM_t1['F']</t>
+  </si>
+  <si>
+    <t>$FSM_t1['B']</t>
+  </si>
+  <si>
+    <t>$FSM_t1['C']</t>
+  </si>
+  <si>
+    <t>$FSM_t1['D']</t>
+  </si>
+  <si>
+    <t>$FSM_t1['E']</t>
+  </si>
+  <si>
+    <t>$FSM_t1['G']</t>
+  </si>
+  <si>
+    <t>$FSM_t1['H']</t>
+  </si>
+  <si>
+    <t>$FSM_t1['I']</t>
+  </si>
+  <si>
+    <t>$FSM_t1['J']</t>
+  </si>
+  <si>
+    <t>$FSM_t1['K']</t>
+  </si>
+  <si>
+    <t>$FSM_t1['L']</t>
+  </si>
+  <si>
+    <t>$FSM_t1['M']</t>
+  </si>
+  <si>
+    <t>$FSM_t1['N']</t>
+  </si>
+  <si>
+    <t>"=D$R+E$R+F$R"</t>
+  </si>
+  <si>
+    <t>"=C$R+G$R"</t>
+  </si>
+  <si>
+    <t>"=H$R*C$R"</t>
+  </si>
+  <si>
+    <t>"=J$R-K$R"</t>
+  </si>
+  <si>
+    <t>"=I$R-L$R"</t>
+  </si>
+  <si>
+    <t>"=J$R/B$R"</t>
+  </si>
+  <si>
+    <t>Временный столбец (можно сразу удалить)</t>
+  </si>
+  <si>
+    <t>ИТОГО:</t>
+  </si>
+  <si>
+    <t>Ведущий специалист по ПСХ                                                            Д.С.Карпенко</t>
   </si>
   <si>
     <r>
@@ -101,11 +209,12 @@
     </r>
     <r>
       <rPr>
+        <b/>
         <vertAlign val="superscript"/>
         <sz val="10"/>
         <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
         <charset val="204"/>
       </rPr>
       <t>2</t>
@@ -117,11 +226,12 @@
     </r>
     <r>
       <rPr>
+        <b/>
         <vertAlign val="superscript"/>
         <sz val="10"/>
         <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
         <charset val="204"/>
       </rPr>
       <t>2</t>
@@ -133,11 +243,12 @@
     </r>
     <r>
       <rPr>
+        <b/>
         <vertAlign val="superscript"/>
         <sz val="10"/>
         <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
         <charset val="204"/>
       </rPr>
       <t>2</t>
@@ -149,11 +260,12 @@
     </r>
     <r>
       <rPr>
+        <b/>
         <vertAlign val="superscript"/>
         <sz val="10"/>
         <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
         <charset val="204"/>
       </rPr>
       <t>2</t>
@@ -165,11 +277,12 @@
     </r>
     <r>
       <rPr>
+        <b/>
         <vertAlign val="superscript"/>
         <sz val="10"/>
         <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
         <charset val="204"/>
       </rPr>
       <t>2</t>
@@ -181,11 +294,12 @@
     </r>
     <r>
       <rPr>
+        <b/>
         <vertAlign val="superscript"/>
         <sz val="10"/>
         <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
         <charset val="204"/>
       </rPr>
       <t>2</t>
@@ -197,55 +311,27 @@
     </r>
     <r>
       <rPr>
+        <b/>
         <vertAlign val="superscript"/>
         <sz val="10"/>
         <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
         <charset val="204"/>
       </rPr>
       <t>2</t>
     </r>
-  </si>
-  <si>
-    <t>Расчетный норматив потребления коммунальной услуги по отоплению, Гкал/м2</t>
-  </si>
-  <si>
-    <t>$t1['standard']</t>
-  </si>
-  <si>
-    <t>$t1['V_odn']</t>
-  </si>
-  <si>
-    <t>$t1['V_UL']</t>
-  </si>
-  <si>
-    <t>$t1['new_standard']</t>
-  </si>
-  <si>
-    <t>"=F$R+G$R+H$R"</t>
-  </si>
-  <si>
-    <t>"=E$R+I$R"</t>
-  </si>
-  <si>
-    <t>"=J$R*E$R"</t>
-  </si>
-  <si>
-    <t>"=L$R-M$R"</t>
-  </si>
-  <si>
-    <t>"=K$R-N$R"</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.0000"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.0000"/>
+    <numFmt numFmtId="165" formatCode="#,##0.0000"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -262,7 +348,8 @@
       <charset val="204"/>
     </font>
     <font>
-      <sz val="12"/>
+      <b/>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
@@ -270,28 +357,50 @@
     </font>
     <font>
       <sz val="10"/>
-      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="204"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <sz val="14"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
       <charset val="204"/>
     </font>
     <font>
+      <b/>
+      <i/>
+      <sz val="14"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
       <vertAlign val="superscript"/>
       <sz val="10"/>
       <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -307,6 +416,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -335,45 +450,116 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -674,365 +860,668 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AA28"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:AB41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleSheetLayoutView="120" workbookViewId="0">
-      <selection activeCell="P5" sqref="P5"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="120" workbookViewId="0">
+      <selection activeCell="T14" sqref="T14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="32.28515625" customWidth="1"/>
-    <col min="2" max="2" width="12.28515625" customWidth="1"/>
-    <col min="3" max="3" width="16.85546875" customWidth="1"/>
-    <col min="4" max="16" width="13.5703125" customWidth="1"/>
-    <col min="18" max="18" width="10.42578125" customWidth="1"/>
-    <col min="19" max="19" width="11.42578125" customWidth="1"/>
-    <col min="20" max="20" width="10.28515625" customWidth="1"/>
-    <col min="21" max="21" width="26.85546875" customWidth="1"/>
-    <col min="22" max="22" width="10.7109375" customWidth="1"/>
-    <col min="25" max="27" width="9.140625" style="2"/>
+    <col min="1" max="1" width="18" style="3" customWidth="1"/>
+    <col min="2" max="8" width="13.28515625" style="3" customWidth="1"/>
+    <col min="9" max="14" width="14.28515625" style="3" customWidth="1"/>
+    <col min="15" max="15" width="15.5703125" style="3" customWidth="1"/>
+    <col min="16" max="16" width="1.140625" style="3" customWidth="1"/>
+    <col min="17" max="20" width="17.85546875" style="6" customWidth="1"/>
+    <col min="21" max="21" width="29.5703125" style="6" customWidth="1"/>
+    <col min="22" max="29" width="17.85546875" style="6" customWidth="1"/>
+    <col min="30" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27">
-      <c r="Q1" t="s">
+    <row r="1" spans="1:27" ht="19.5">
+      <c r="A1" s="11"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="M1" s="30"/>
+      <c r="N1" s="30"/>
+      <c r="O1" s="20"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="R1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="S1" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="T1" s="5">
+        <v>10</v>
+      </c>
+      <c r="U1" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" ht="19.5">
+      <c r="A2" s="11"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="M2" s="29"/>
+      <c r="N2" s="29"/>
+      <c r="O2" s="19"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="4"/>
+      <c r="R2" s="5"/>
+      <c r="S2" s="5"/>
+      <c r="T2" s="5"/>
+      <c r="U2" s="4"/>
+    </row>
+    <row r="3" spans="1:27" ht="19.5">
+      <c r="A3" s="11"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="M3" s="29"/>
+      <c r="N3" s="29"/>
+      <c r="O3" s="19"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="4"/>
+      <c r="R3" s="5"/>
+      <c r="S3" s="5"/>
+      <c r="T3" s="5"/>
+      <c r="U3" s="4"/>
+    </row>
+    <row r="4" spans="1:27" ht="19.5">
+      <c r="A4" s="11"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="M4" s="29"/>
+      <c r="N4" s="29"/>
+      <c r="O4" s="19"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="4"/>
+      <c r="R4" s="5"/>
+      <c r="S4" s="5"/>
+      <c r="T4" s="5"/>
+      <c r="U4" s="4"/>
+    </row>
+    <row r="5" spans="1:27" ht="19.5">
+      <c r="A5" s="11"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="M5" s="29"/>
+      <c r="N5" s="29"/>
+      <c r="O5" s="19"/>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="5"/>
+      <c r="S5" s="5"/>
+      <c r="T5" s="5"/>
+      <c r="U5" s="4"/>
+    </row>
+    <row r="6" spans="1:27">
+      <c r="A6" s="11"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="11"/>
+      <c r="N6" s="11"/>
+      <c r="O6" s="11"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="4"/>
+      <c r="R6" s="5"/>
+      <c r="S6" s="5"/>
+      <c r="T6" s="5"/>
+      <c r="U6" s="4"/>
+    </row>
+    <row r="7" spans="1:27" ht="55.5" customHeight="1">
+      <c r="A7" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" s="31"/>
+      <c r="C7" s="31"/>
+      <c r="D7" s="31"/>
+      <c r="E7" s="31"/>
+      <c r="F7" s="31"/>
+      <c r="G7" s="31"/>
+      <c r="H7" s="31"/>
+      <c r="I7" s="31"/>
+      <c r="J7" s="31"/>
+      <c r="K7" s="31"/>
+      <c r="L7" s="31"/>
+      <c r="M7" s="31"/>
+      <c r="N7" s="31"/>
+      <c r="O7" s="18"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="4"/>
+      <c r="R7" s="5"/>
+      <c r="S7" s="5"/>
+      <c r="T7" s="5"/>
+      <c r="U7" s="4"/>
+    </row>
+    <row r="8" spans="1:27">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="4"/>
+      <c r="R8" s="5"/>
+      <c r="S8" s="5"/>
+      <c r="T8" s="5"/>
+      <c r="U8" s="4"/>
+    </row>
+    <row r="9" spans="1:27">
+      <c r="A9" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="33" t="s">
+        <v>61</v>
+      </c>
+      <c r="C9" s="33" t="s">
+        <v>62</v>
+      </c>
+      <c r="D9" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="33"/>
+      <c r="F9" s="33"/>
+      <c r="G9" s="33" t="s">
+        <v>63</v>
+      </c>
+      <c r="H9" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="I9" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="J9" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="K9" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="L9" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="M9" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="N9" s="33" t="s">
+        <v>64</v>
+      </c>
+      <c r="O9" s="22"/>
+      <c r="P9" s="15"/>
+      <c r="Q9" s="4"/>
+      <c r="R9" s="5"/>
+      <c r="S9" s="5"/>
+      <c r="T9" s="5"/>
+      <c r="U9" s="4"/>
+    </row>
+    <row r="10" spans="1:27" ht="93" customHeight="1">
+      <c r="A10" s="33"/>
+      <c r="B10" s="33"/>
+      <c r="C10" s="33"/>
+      <c r="D10" s="34" t="s">
+        <v>65</v>
+      </c>
+      <c r="E10" s="34" t="s">
+        <v>66</v>
+      </c>
+      <c r="F10" s="34" t="s">
+        <v>67</v>
+      </c>
+      <c r="G10" s="33"/>
+      <c r="H10" s="33"/>
+      <c r="I10" s="33"/>
+      <c r="J10" s="33"/>
+      <c r="K10" s="33"/>
+      <c r="L10" s="33"/>
+      <c r="M10" s="33"/>
+      <c r="N10" s="33"/>
+      <c r="O10" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="P10" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q10" s="4"/>
+      <c r="R10" s="5"/>
+      <c r="S10" s="5"/>
+      <c r="T10" s="5"/>
+      <c r="U10" s="4"/>
+    </row>
+    <row r="11" spans="1:27">
+      <c r="A11" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="G11" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="H11" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="I11" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="J11" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="K11" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="L11" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="M11" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="N11" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="O11" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="P11" s="17"/>
+      <c r="Q11" s="4"/>
+      <c r="R11" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="S11" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="T11" s="5">
+        <v>1</v>
+      </c>
+      <c r="U11" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="V11" s="7"/>
+    </row>
+    <row r="12" spans="1:27">
+      <c r="A12" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="B12" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="E12" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="G12" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="H12" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="I12" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="J12" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="K12" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="L12" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="M12" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="N12" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="O12" s="23"/>
+      <c r="P12" s="17"/>
+      <c r="Q12" s="4"/>
+      <c r="R12" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="S12" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="T12" s="8">
+        <v>1</v>
+      </c>
+      <c r="U12" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="V12" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="W12" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="X12" s="21"/>
+      <c r="Y12" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z12" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA12" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" ht="18.75" customHeight="1">
+      <c r="R13" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="S13" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="T13" s="8">
         <v>4</v>
       </c>
-      <c r="T1" s="2">
+      <c r="U13" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="V13" s="9"/>
+      <c r="W13" s="9"/>
+    </row>
+    <row r="15" spans="1:27">
+      <c r="A15" s="32" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" ht="18" customHeight="1">
+      <c r="P16" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y16" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z16" s="8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="18:28" ht="18" customHeight="1">
+      <c r="R17" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="U1" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y1" s="4"/>
-      <c r="Z1" s="4"/>
-      <c r="AA1" s="4"/>
-    </row>
-    <row r="2" spans="1:27" ht="18.75" customHeight="1">
-      <c r="A2" s="8"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="8"/>
-      <c r="N2" s="8"/>
-      <c r="O2" s="8"/>
-      <c r="P2" s="8"/>
-      <c r="Y2" s="4"/>
-      <c r="Z2" s="4"/>
-      <c r="AA2" s="4"/>
-    </row>
-    <row r="3" spans="1:27" ht="18.75" customHeight="1">
-      <c r="A3" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="14" t="s">
+      <c r="S17" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="E3" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="F3" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="J3" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="K3" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="L3" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="M3" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="N3" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="O3" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="P3" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y3" s="4"/>
-      <c r="Z3" s="4"/>
-      <c r="AA3" s="4"/>
-    </row>
-    <row r="4" spans="1:27" s="5" customFormat="1" ht="87" customHeight="1">
-      <c r="A4" s="13"/>
-      <c r="B4" s="13"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="G4" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="H4" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14"/>
-      <c r="K4" s="14"/>
-      <c r="L4" s="14"/>
-      <c r="M4" s="14"/>
-      <c r="N4" s="14"/>
-      <c r="O4" s="14"/>
-      <c r="P4" s="14"/>
-      <c r="R4" s="1"/>
-      <c r="S4"/>
-      <c r="T4"/>
-      <c r="U4"/>
-      <c r="V4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="W4" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X4"/>
-      <c r="Y4" s="4"/>
-      <c r="Z4" s="4"/>
-      <c r="AA4" s="4"/>
-    </row>
-    <row r="5" spans="1:27" ht="15.75">
-      <c r="A5" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="F5" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="H5" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="I5" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="J5" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="K5" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="L5" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="M5" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="N5" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="O5" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="P5" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="R5" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="S5" s="6" t="s">
+      <c r="T17" s="5">
         <v>0</v>
       </c>
-      <c r="T5" s="6">
-        <v>1</v>
-      </c>
-      <c r="U5" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="V5" s="7"/>
-      <c r="W5" s="7"/>
-      <c r="X5" s="5"/>
-      <c r="Y5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z5" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA5" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:27">
-      <c r="Y6" s="4"/>
-      <c r="Z6" s="4"/>
-      <c r="AA6" s="4"/>
-    </row>
-    <row r="7" spans="1:27">
-      <c r="Y7" s="4"/>
-      <c r="Z7" s="4"/>
-      <c r="AA7" s="4"/>
-    </row>
-    <row r="8" spans="1:27">
-      <c r="Y8" s="4"/>
-      <c r="Z8" s="4"/>
-      <c r="AA8" s="4"/>
-    </row>
-    <row r="9" spans="1:27">
-      <c r="Y9" s="4"/>
-      <c r="Z9" s="4"/>
-      <c r="AA9" s="4"/>
-    </row>
-    <row r="10" spans="1:27">
-      <c r="Y10" s="4"/>
-      <c r="Z10" s="4"/>
-      <c r="AA10" s="4"/>
-    </row>
-    <row r="11" spans="1:27">
-      <c r="Y11" s="4"/>
-      <c r="Z11" s="4"/>
-      <c r="AA11" s="4"/>
-    </row>
-    <row r="12" spans="1:27">
-      <c r="Y12" s="4"/>
-      <c r="Z12" s="4"/>
-      <c r="AA12" s="4"/>
-    </row>
-    <row r="13" spans="1:27">
-      <c r="Y13" s="4"/>
-      <c r="Z13" s="4"/>
-      <c r="AA13" s="4"/>
-    </row>
-    <row r="14" spans="1:27">
-      <c r="Y14" s="4"/>
-      <c r="Z14" s="4"/>
-      <c r="AA14" s="4"/>
-    </row>
-    <row r="15" spans="1:27">
-      <c r="Y15" s="4"/>
-      <c r="Z15" s="4"/>
-      <c r="AA15" s="4"/>
-    </row>
-    <row r="16" spans="1:27">
-      <c r="Y16" s="4"/>
-      <c r="Z16" s="4"/>
-      <c r="AA16" s="4"/>
-    </row>
-    <row r="17" spans="25:27">
-      <c r="Y17" s="4"/>
-      <c r="Z17" s="4"/>
-      <c r="AA17" s="4"/>
-    </row>
-    <row r="18" spans="25:27">
-      <c r="Y18" s="4"/>
-      <c r="Z18" s="4"/>
-      <c r="AA18" s="4"/>
-    </row>
-    <row r="19" spans="25:27">
-      <c r="Y19" s="4"/>
-      <c r="Z19" s="4"/>
-      <c r="AA19" s="4"/>
-    </row>
-    <row r="20" spans="25:27">
-      <c r="Y20" s="4"/>
-      <c r="Z20" s="4"/>
-      <c r="AA20" s="4"/>
-    </row>
-    <row r="21" spans="25:27">
-      <c r="Y21" s="4"/>
-      <c r="Z21" s="4"/>
-      <c r="AA21" s="4"/>
-    </row>
-    <row r="22" spans="25:27">
-      <c r="Y22" s="4"/>
-      <c r="Z22" s="4"/>
-      <c r="AA22" s="4"/>
-    </row>
-    <row r="23" spans="25:27">
-      <c r="Y23" s="4"/>
-      <c r="Z23" s="4"/>
-      <c r="AA23" s="4"/>
-    </row>
-    <row r="24" spans="25:27">
-      <c r="Y24" s="4"/>
-      <c r="Z24" s="4"/>
-      <c r="AA24" s="4"/>
-    </row>
-    <row r="25" spans="25:27">
-      <c r="Y25" s="4"/>
-      <c r="Z25" s="4"/>
-      <c r="AA25" s="4"/>
-    </row>
-    <row r="26" spans="25:27">
-      <c r="Y26" s="4"/>
-      <c r="Z26" s="4"/>
-      <c r="AA26" s="4"/>
-    </row>
-    <row r="27" spans="25:27">
-      <c r="Y27" s="4"/>
-      <c r="Z27" s="4"/>
-      <c r="AA27" s="4"/>
-    </row>
-    <row r="28" spans="25:27">
-      <c r="Y28" s="4"/>
-      <c r="Z28" s="4"/>
-      <c r="AA28" s="4"/>
+    </row>
+    <row r="18" spans="18:28" ht="18.75" customHeight="1"/>
+    <row r="24" spans="18:28">
+      <c r="R24" s="9"/>
+      <c r="S24" s="9"/>
+      <c r="T24" s="10"/>
+      <c r="U24" s="10"/>
+      <c r="V24" s="10"/>
+      <c r="W24" s="10"/>
+      <c r="X24" s="10"/>
+      <c r="Y24" s="10"/>
+      <c r="Z24" s="10"/>
+      <c r="AA24" s="10"/>
+      <c r="AB24" s="10"/>
+    </row>
+    <row r="25" spans="18:28">
+      <c r="R25" s="9"/>
+      <c r="S25" s="9"/>
+      <c r="T25" s="9"/>
+      <c r="U25" s="9"/>
+      <c r="V25" s="10"/>
+      <c r="W25" s="10"/>
+      <c r="X25" s="10"/>
+      <c r="Y25" s="10"/>
+      <c r="Z25" s="10"/>
+      <c r="AA25" s="10"/>
+      <c r="AB25" s="10"/>
+    </row>
+    <row r="26" spans="18:28">
+      <c r="R26" s="9"/>
+      <c r="S26" s="9"/>
+      <c r="T26" s="9"/>
+      <c r="U26" s="9"/>
+      <c r="V26" s="9"/>
+      <c r="W26" s="9"/>
+      <c r="X26" s="10"/>
+      <c r="Y26" s="9"/>
+      <c r="Z26" s="9"/>
+      <c r="AA26" s="9"/>
+      <c r="AB26" s="10"/>
+    </row>
+    <row r="27" spans="18:28">
+      <c r="R27" s="9"/>
+      <c r="S27" s="9"/>
+      <c r="T27" s="9"/>
+      <c r="U27" s="10"/>
+      <c r="V27" s="10"/>
+      <c r="W27" s="10"/>
+      <c r="X27" s="10"/>
+      <c r="Y27" s="10"/>
+      <c r="Z27" s="10"/>
+      <c r="AA27" s="10"/>
+      <c r="AB27" s="10"/>
+    </row>
+    <row r="28" spans="18:28">
+      <c r="R28" s="9"/>
+      <c r="S28" s="9"/>
+      <c r="T28" s="10"/>
+      <c r="U28" s="10"/>
+      <c r="V28" s="10"/>
+      <c r="W28" s="10"/>
+      <c r="X28" s="10"/>
+      <c r="Y28" s="10"/>
+      <c r="Z28" s="10"/>
+      <c r="AA28" s="10"/>
+      <c r="AB28" s="10"/>
+    </row>
+    <row r="29" spans="18:28">
+      <c r="R29" s="9"/>
+      <c r="S29" s="9"/>
+      <c r="T29" s="9"/>
+      <c r="U29" s="9"/>
+      <c r="V29" s="10"/>
+      <c r="W29" s="10"/>
+      <c r="X29" s="10"/>
+      <c r="Y29" s="9"/>
+      <c r="Z29" s="9"/>
+      <c r="AA29" s="9"/>
+      <c r="AB29" s="10"/>
+    </row>
+    <row r="30" spans="18:28">
+      <c r="R30" s="9"/>
+      <c r="S30" s="9"/>
+      <c r="T30" s="9"/>
+      <c r="U30" s="10"/>
+      <c r="V30" s="10"/>
+      <c r="W30" s="10"/>
+      <c r="X30" s="10"/>
+      <c r="Y30" s="10"/>
+      <c r="Z30" s="10"/>
+      <c r="AA30" s="10"/>
+      <c r="AB30" s="10"/>
+    </row>
+    <row r="31" spans="18:28">
+      <c r="R31" s="10"/>
+      <c r="S31" s="10"/>
+      <c r="T31" s="10"/>
+      <c r="U31" s="10"/>
+      <c r="V31" s="10"/>
+      <c r="W31" s="10"/>
+      <c r="X31" s="10"/>
+      <c r="Y31" s="10"/>
+      <c r="Z31" s="10"/>
+      <c r="AA31" s="10"/>
+      <c r="AB31" s="10"/>
+    </row>
+    <row r="32" spans="18:28">
+      <c r="R32" s="10"/>
+      <c r="S32" s="10"/>
+      <c r="T32" s="10"/>
+      <c r="U32" s="10"/>
+      <c r="V32" s="10"/>
+      <c r="W32" s="10"/>
+      <c r="X32" s="10"/>
+      <c r="Y32" s="10"/>
+      <c r="Z32" s="10"/>
+      <c r="AA32" s="10"/>
+      <c r="AB32" s="10"/>
+    </row>
+    <row r="33" spans="18:28">
+      <c r="R33" s="10"/>
+      <c r="S33" s="10"/>
+      <c r="T33" s="10"/>
+      <c r="U33" s="10"/>
+      <c r="V33" s="10"/>
+      <c r="W33" s="10"/>
+      <c r="X33" s="10"/>
+      <c r="Y33" s="10"/>
+      <c r="Z33" s="10"/>
+      <c r="AA33" s="10"/>
+      <c r="AB33" s="10"/>
+    </row>
+    <row r="34" spans="18:28">
+      <c r="R34" s="10"/>
+      <c r="S34" s="10"/>
+      <c r="T34" s="10"/>
+      <c r="U34" s="10"/>
+      <c r="V34" s="10"/>
+      <c r="W34" s="10"/>
+      <c r="X34" s="10"/>
+      <c r="Y34" s="10"/>
+      <c r="Z34" s="10"/>
+      <c r="AA34" s="10"/>
+      <c r="AB34" s="10"/>
+    </row>
+    <row r="41" spans="18:28">
+      <c r="R41" s="8"/>
+      <c r="S41" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="14">
-    <mergeCell ref="O3:O4"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="M3:M4"/>
-    <mergeCell ref="N3:N4"/>
+  <mergeCells count="18">
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="K9:K10"/>
+    <mergeCell ref="L9:L10"/>
+    <mergeCell ref="M9:M10"/>
+    <mergeCell ref="L1:N1"/>
+    <mergeCell ref="A7:N7"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="L2:N2"/>
+    <mergeCell ref="L3:N3"/>
+    <mergeCell ref="L4:N4"/>
+    <mergeCell ref="L5:N5"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="N9:N10"/>
+    <mergeCell ref="I9:I10"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.39370078740157483" bottom="0.78740157480314965" header="0" footer="0"/>
-  <pageSetup paperSize="9" fitToHeight="1000" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="31" fitToHeight="1000" orientation="landscape" r:id="rId1"/>
   <colBreaks count="1" manualBreakCount="1">
-    <brk id="16" max="1048575" man="1"/>
+    <brk id="24" max="1048575" man="1"/>
   </colBreaks>
 </worksheet>
 </file>

--- a/Reports/Recalculation/HOT_autoRecalc/HOT_autoRecalc.xlsx
+++ b/Reports/Recalculation/HOT_autoRecalc/HOT_autoRecalc.xlsx
@@ -87,12 +87,6 @@
     <t>$t1['standard']</t>
   </si>
   <si>
-    <t>$t1['V_odn']</t>
-  </si>
-  <si>
-    <t>$t1['V_UL']</t>
-  </si>
-  <si>
     <t>$t1['new_standard']</t>
   </si>
   <si>
@@ -126,9 +120,6 @@
     <t>$this-&gt;tt1 = $t2['table1'];</t>
   </si>
   <si>
-    <t>"Корректировка потребления тепловой энергии согласно показаний ОДПУ по жилому дому, расположенному в пгт Бачатский, ".$t2['addres_house'].", за период с 01.01.2022г по 31.12.2022г."</t>
-  </si>
-  <si>
     <t>Group</t>
   </si>
   <si>
@@ -184,15 +175,6 @@
   </si>
   <si>
     <t>"=H$R*C$R"</t>
-  </si>
-  <si>
-    <t>"=J$R-K$R"</t>
-  </si>
-  <si>
-    <t>"=I$R-L$R"</t>
-  </si>
-  <si>
-    <t>"=J$R/B$R"</t>
   </si>
   <si>
     <t>Временный столбец (можно сразу удалить)</t>
@@ -321,6 +303,24 @@
       </rPr>
       <t>2</t>
     </r>
+  </si>
+  <si>
+    <t>$t1['calculate'] == '1' ? "=L$R-I$R" : ""</t>
+  </si>
+  <si>
+    <t>$t1['calculate'] == '1' ? "=J$R-K$R" : ""</t>
+  </si>
+  <si>
+    <t>$t1['calculate'] == '1' ? $t1['V_UL']  : ""</t>
+  </si>
+  <si>
+    <t>$t1['calculate'] == '1' ? $t1['V_odn']  : ""</t>
+  </si>
+  <si>
+    <t>$t1['calculate'] == '1' ? "=J$R/B$R"  : ""</t>
+  </si>
+  <si>
+    <t>"Корректировка потребления тепловой энергии согласно показаний ОДПУ по жилому дому, расположенному в пгт Бачатский, ".$t2['addres_house'].", за период с 01.01.2023г по 31.12.2023г."</t>
   </si>
 </sst>
 </file>
@@ -538,6 +538,15 @@
     <xf numFmtId="165" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -545,15 +554,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -866,7 +866,7 @@
   <dimension ref="A1:AB41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="120" workbookViewId="0">
-      <selection activeCell="T14" sqref="T14"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -894,11 +894,11 @@
       <c r="I1" s="11"/>
       <c r="J1" s="11"/>
       <c r="K1" s="11"/>
-      <c r="L1" s="29" t="s">
-        <v>29</v>
-      </c>
-      <c r="M1" s="30"/>
-      <c r="N1" s="30"/>
+      <c r="L1" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="M1" s="33"/>
+      <c r="N1" s="33"/>
       <c r="O1" s="20"/>
       <c r="P1" s="2"/>
       <c r="Q1" s="4" t="s">
@@ -908,13 +908,13 @@
         <v>1</v>
       </c>
       <c r="S1" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="T1" s="5">
         <v>10</v>
       </c>
       <c r="U1" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:27" ht="19.5">
@@ -929,11 +929,11 @@
       <c r="I2" s="11"/>
       <c r="J2" s="11"/>
       <c r="K2" s="11"/>
-      <c r="L2" s="29" t="s">
-        <v>30</v>
-      </c>
-      <c r="M2" s="29"/>
-      <c r="N2" s="29"/>
+      <c r="L2" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="M2" s="32"/>
+      <c r="N2" s="32"/>
       <c r="O2" s="19"/>
       <c r="P2" s="2"/>
       <c r="Q2" s="4"/>
@@ -954,11 +954,11 @@
       <c r="I3" s="11"/>
       <c r="J3" s="11"/>
       <c r="K3" s="11"/>
-      <c r="L3" s="29" t="s">
-        <v>31</v>
-      </c>
-      <c r="M3" s="29"/>
-      <c r="N3" s="29"/>
+      <c r="L3" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="M3" s="32"/>
+      <c r="N3" s="32"/>
       <c r="O3" s="19"/>
       <c r="P3" s="2"/>
       <c r="Q3" s="4"/>
@@ -979,11 +979,11 @@
       <c r="I4" s="11"/>
       <c r="J4" s="11"/>
       <c r="K4" s="11"/>
-      <c r="L4" s="29" t="s">
-        <v>32</v>
-      </c>
-      <c r="M4" s="29"/>
-      <c r="N4" s="29"/>
+      <c r="L4" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="M4" s="32"/>
+      <c r="N4" s="32"/>
       <c r="O4" s="19"/>
       <c r="P4" s="2"/>
       <c r="Q4" s="4"/>
@@ -1004,11 +1004,11 @@
       <c r="I5" s="11"/>
       <c r="J5" s="11"/>
       <c r="K5" s="11"/>
-      <c r="L5" s="29" t="s">
-        <v>33</v>
-      </c>
-      <c r="M5" s="29"/>
-      <c r="N5" s="29"/>
+      <c r="L5" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="M5" s="32"/>
+      <c r="N5" s="32"/>
       <c r="O5" s="19"/>
       <c r="P5" s="2"/>
       <c r="Q5" s="4"/>
@@ -1041,22 +1041,22 @@
       <c r="U6" s="4"/>
     </row>
     <row r="7" spans="1:27" ht="55.5" customHeight="1">
-      <c r="A7" s="31" t="s">
-        <v>35</v>
-      </c>
-      <c r="B7" s="31"/>
-      <c r="C7" s="31"/>
-      <c r="D7" s="31"/>
-      <c r="E7" s="31"/>
-      <c r="F7" s="31"/>
-      <c r="G7" s="31"/>
-      <c r="H7" s="31"/>
-      <c r="I7" s="31"/>
-      <c r="J7" s="31"/>
-      <c r="K7" s="31"/>
-      <c r="L7" s="31"/>
-      <c r="M7" s="31"/>
-      <c r="N7" s="31"/>
+      <c r="A7" s="34" t="s">
+        <v>67</v>
+      </c>
+      <c r="B7" s="34"/>
+      <c r="C7" s="34"/>
+      <c r="D7" s="34"/>
+      <c r="E7" s="34"/>
+      <c r="F7" s="34"/>
+      <c r="G7" s="34"/>
+      <c r="H7" s="34"/>
+      <c r="I7" s="34"/>
+      <c r="J7" s="34"/>
+      <c r="K7" s="34"/>
+      <c r="L7" s="34"/>
+      <c r="M7" s="34"/>
+      <c r="N7" s="34"/>
       <c r="O7" s="18"/>
       <c r="P7" s="2"/>
       <c r="Q7" s="4"/>
@@ -1089,43 +1089,43 @@
       <c r="U8" s="4"/>
     </row>
     <row r="9" spans="1:27">
-      <c r="A9" s="33" t="s">
+      <c r="A9" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="33" t="s">
-        <v>61</v>
-      </c>
-      <c r="C9" s="33" t="s">
-        <v>62</v>
-      </c>
-      <c r="D9" s="33" t="s">
+      <c r="B9" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="C9" s="31" t="s">
+        <v>56</v>
+      </c>
+      <c r="D9" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="33"/>
-      <c r="F9" s="33"/>
-      <c r="G9" s="33" t="s">
-        <v>63</v>
-      </c>
-      <c r="H9" s="33" t="s">
+      <c r="E9" s="31"/>
+      <c r="F9" s="31"/>
+      <c r="G9" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="H9" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="I9" s="33" t="s">
+      <c r="I9" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="J9" s="33" t="s">
+      <c r="J9" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="K9" s="33" t="s">
+      <c r="K9" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="L9" s="33" t="s">
+      <c r="L9" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="M9" s="33" t="s">
+      <c r="M9" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="N9" s="33" t="s">
-        <v>64</v>
+      <c r="N9" s="31" t="s">
+        <v>58</v>
       </c>
       <c r="O9" s="22"/>
       <c r="P9" s="15"/>
@@ -1136,31 +1136,31 @@
       <c r="U9" s="4"/>
     </row>
     <row r="10" spans="1:27" ht="93" customHeight="1">
-      <c r="A10" s="33"/>
-      <c r="B10" s="33"/>
-      <c r="C10" s="33"/>
-      <c r="D10" s="34" t="s">
-        <v>65</v>
-      </c>
-      <c r="E10" s="34" t="s">
-        <v>66</v>
-      </c>
-      <c r="F10" s="34" t="s">
-        <v>67</v>
-      </c>
-      <c r="G10" s="33"/>
-      <c r="H10" s="33"/>
-      <c r="I10" s="33"/>
-      <c r="J10" s="33"/>
-      <c r="K10" s="33"/>
-      <c r="L10" s="33"/>
-      <c r="M10" s="33"/>
-      <c r="N10" s="33"/>
+      <c r="A10" s="31"/>
+      <c r="B10" s="31"/>
+      <c r="C10" s="31"/>
+      <c r="D10" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="E10" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="F10" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="G10" s="31"/>
+      <c r="H10" s="31"/>
+      <c r="I10" s="31"/>
+      <c r="J10" s="31"/>
+      <c r="K10" s="31"/>
+      <c r="L10" s="31"/>
+      <c r="M10" s="31"/>
+      <c r="N10" s="31"/>
       <c r="O10" s="24" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="P10" s="16" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="Q10" s="4"/>
       <c r="R10" s="5"/>
@@ -1173,10 +1173,10 @@
         <v>18</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D11" s="13" t="s">
         <v>8</v>
@@ -1194,25 +1194,25 @@
         <v>21</v>
       </c>
       <c r="I11" s="14" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="J11" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="K11" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="L11" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="M11" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="N11" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="K11" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="L11" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="M11" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="N11" s="14" t="s">
-        <v>24</v>
-      </c>
       <c r="O11" s="25" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="P11" s="17"/>
       <c r="Q11" s="4"/>
@@ -1232,55 +1232,55 @@
     </row>
     <row r="12" spans="1:27">
       <c r="A12" s="26" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="B12" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="C12" s="27" t="s">
+      <c r="F12" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="G12" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="D12" s="27" t="s">
+      <c r="H12" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="E12" s="27" t="s">
+      <c r="I12" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="F12" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="G12" s="27" t="s">
+      <c r="J12" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="H12" s="28" t="s">
+      <c r="K12" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="I12" s="28" t="s">
+      <c r="L12" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="J12" s="28" t="s">
+      <c r="M12" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="K12" s="28" t="s">
+      <c r="N12" s="28" t="s">
         <v>48</v>
-      </c>
-      <c r="L12" s="28" t="s">
-        <v>49</v>
-      </c>
-      <c r="M12" s="28" t="s">
-        <v>50</v>
-      </c>
-      <c r="N12" s="28" t="s">
-        <v>51</v>
       </c>
       <c r="O12" s="23"/>
       <c r="P12" s="17"/>
       <c r="Q12" s="4"/>
       <c r="R12" s="8" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="S12" s="8" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="T12" s="8">
         <v>1</v>
@@ -1289,10 +1289,10 @@
         <v>0</v>
       </c>
       <c r="V12" s="21" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="W12" s="21" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="X12" s="21"/>
       <c r="Y12" s="5" t="s">
@@ -1310,7 +1310,7 @@
         <v>3</v>
       </c>
       <c r="S13" s="8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="T13" s="8">
         <v>4</v>
@@ -1322,19 +1322,19 @@
       <c r="W13" s="9"/>
     </row>
     <row r="15" spans="1:27">
-      <c r="A15" s="32" t="s">
-        <v>60</v>
+      <c r="A15" s="29" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="16" spans="1:27" ht="18" customHeight="1">
       <c r="P16" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="Y16" s="8" t="s">
         <v>5</v>
       </c>
       <c r="Z16" s="8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="18:28" ht="18" customHeight="1">
@@ -1342,7 +1342,7 @@
         <v>4</v>
       </c>
       <c r="S17" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="T17" s="5">
         <v>0</v>

--- a/Reports/Recalculation/HOT_autoRecalc/HOT_autoRecalc.xlsx
+++ b/Reports/Recalculation/HOT_autoRecalc/HOT_autoRecalc.xlsx
@@ -305,9 +305,6 @@
     </r>
   </si>
   <si>
-    <t>$t1['calculate'] == '1' ? "=L$R-I$R" : ""</t>
-  </si>
-  <si>
     <t>$t1['calculate'] == '1' ? "=J$R-K$R" : ""</t>
   </si>
   <si>
@@ -321,6 +318,9 @@
   </si>
   <si>
     <t>"Корректировка потребления тепловой энергии согласно показаний ОДПУ по жилому дому, расположенному в пгт Бачатский, ".$t2['addres_house'].", за период с 01.01.2023г по 31.12.2023г."</t>
+  </si>
+  <si>
+    <t>"=L$R-I$R"</t>
   </si>
 </sst>
 </file>
@@ -866,7 +866,7 @@
   <dimension ref="A1:AB41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="120" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1042,7 +1042,7 @@
     </row>
     <row r="7" spans="1:27" ht="55.5" customHeight="1">
       <c r="A7" s="34" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B7" s="34"/>
       <c r="C7" s="34"/>
@@ -1197,22 +1197,22 @@
         <v>51</v>
       </c>
       <c r="J11" s="14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K11" s="14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L11" s="14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="M11" s="14" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="N11" s="14" t="s">
         <v>22</v>
       </c>
       <c r="O11" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="P11" s="17"/>
       <c r="Q11" s="4"/>
@@ -1498,6 +1498,8 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="N9:N10"/>
+    <mergeCell ref="I9:I10"/>
     <mergeCell ref="J9:J10"/>
     <mergeCell ref="K9:K10"/>
     <mergeCell ref="L9:L10"/>
@@ -1514,8 +1516,6 @@
     <mergeCell ref="D9:F9"/>
     <mergeCell ref="G9:G10"/>
     <mergeCell ref="H9:H10"/>
-    <mergeCell ref="N9:N10"/>
-    <mergeCell ref="I9:I10"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.39370078740157483" bottom="0.78740157480314965" header="0" footer="0"/>

--- a/Reports/Recalculation/HOT_autoRecalc/HOT_autoRecalc.xlsx
+++ b/Reports/Recalculation/HOT_autoRecalc/HOT_autoRecalc.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="71">
   <si>
     <t>t1</t>
   </si>
@@ -305,9 +305,6 @@
     </r>
   </si>
   <si>
-    <t>$t1['calculate'] == '1' ? "=J$R-K$R" : ""</t>
-  </si>
-  <si>
     <t>$t1['calculate'] == '1' ? $t1['V_UL']  : ""</t>
   </si>
   <si>
@@ -321,6 +318,18 @@
   </si>
   <si>
     <t>"=L$R-I$R"</t>
+  </si>
+  <si>
+    <t>$t1['calculate'] == '1' ? "=J$R-K$R" : "0"</t>
+  </si>
+  <si>
+    <t>$t1['name_street']</t>
+  </si>
+  <si>
+    <t>$t1['house']</t>
+  </si>
+  <si>
+    <t>$t1['name_JEU']</t>
   </si>
 </sst>
 </file>
@@ -331,7 +340,7 @@
     <numFmt numFmtId="164" formatCode="0.0000"/>
     <numFmt numFmtId="165" formatCode="#,##0.0000"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -399,6 +408,14 @@
       <family val="1"/>
       <charset val="204"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -454,7 +471,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -520,9 +537,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -544,6 +558,30 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -555,6 +593,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -863,26 +907,27 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AB41"/>
+  <dimension ref="A1:AD41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="120" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+      <selection activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="1" width="18" style="3" customWidth="1"/>
     <col min="2" max="8" width="13.28515625" style="3" customWidth="1"/>
-    <col min="9" max="14" width="14.28515625" style="3" customWidth="1"/>
-    <col min="15" max="15" width="15.5703125" style="3" customWidth="1"/>
-    <col min="16" max="16" width="1.140625" style="3" customWidth="1"/>
-    <col min="17" max="20" width="17.85546875" style="6" customWidth="1"/>
-    <col min="21" max="21" width="29.5703125" style="6" customWidth="1"/>
-    <col min="22" max="29" width="17.85546875" style="6" customWidth="1"/>
-    <col min="30" max="16384" width="9.140625" style="6"/>
+    <col min="9" max="15" width="14.28515625" style="3" customWidth="1"/>
+    <col min="16" max="16" width="26.140625" style="3" customWidth="1"/>
+    <col min="17" max="17" width="19.140625" style="3" customWidth="1"/>
+    <col min="18" max="18" width="1.140625" style="3" customWidth="1"/>
+    <col min="19" max="22" width="17.85546875" style="6" customWidth="1"/>
+    <col min="23" max="23" width="29.5703125" style="6" customWidth="1"/>
+    <col min="24" max="31" width="17.85546875" style="6" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="19.5">
+    <row r="1" spans="1:29" ht="19.5">
       <c r="A1" s="11"/>
       <c r="B1" s="11"/>
       <c r="C1" s="11"/>
@@ -894,30 +939,32 @@
       <c r="I1" s="11"/>
       <c r="J1" s="11"/>
       <c r="K1" s="11"/>
-      <c r="L1" s="32" t="s">
+      <c r="L1" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="M1" s="33"/>
-      <c r="N1" s="33"/>
-      <c r="O1" s="20"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="4" t="s">
+      <c r="M1" s="40"/>
+      <c r="N1" s="40"/>
+      <c r="O1" s="34"/>
+      <c r="P1" s="20"/>
+      <c r="Q1" s="31"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="R1" s="5" t="s">
+      <c r="T1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="S1" s="5" t="s">
+      <c r="U1" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="T1" s="5">
+      <c r="V1" s="5">
         <v>10</v>
       </c>
-      <c r="U1" s="4" t="s">
+      <c r="W1" s="4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:27" ht="19.5">
+    <row r="2" spans="1:29" ht="19.5">
       <c r="A2" s="11"/>
       <c r="B2" s="11"/>
       <c r="C2" s="11"/>
@@ -929,20 +976,22 @@
       <c r="I2" s="11"/>
       <c r="J2" s="11"/>
       <c r="K2" s="11"/>
-      <c r="L2" s="32" t="s">
+      <c r="L2" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="M2" s="32"/>
-      <c r="N2" s="32"/>
-      <c r="O2" s="19"/>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="4"/>
-      <c r="R2" s="5"/>
-      <c r="S2" s="5"/>
+      <c r="M2" s="39"/>
+      <c r="N2" s="39"/>
+      <c r="O2" s="33"/>
+      <c r="P2" s="19"/>
+      <c r="Q2" s="30"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="4"/>
       <c r="T2" s="5"/>
-      <c r="U2" s="4"/>
-    </row>
-    <row r="3" spans="1:27" ht="19.5">
+      <c r="U2" s="5"/>
+      <c r="V2" s="5"/>
+      <c r="W2" s="4"/>
+    </row>
+    <row r="3" spans="1:29" ht="19.5">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="C3" s="11"/>
@@ -954,20 +1003,22 @@
       <c r="I3" s="11"/>
       <c r="J3" s="11"/>
       <c r="K3" s="11"/>
-      <c r="L3" s="32" t="s">
+      <c r="L3" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="M3" s="32"/>
-      <c r="N3" s="32"/>
-      <c r="O3" s="19"/>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="4"/>
-      <c r="R3" s="5"/>
-      <c r="S3" s="5"/>
+      <c r="M3" s="39"/>
+      <c r="N3" s="39"/>
+      <c r="O3" s="33"/>
+      <c r="P3" s="19"/>
+      <c r="Q3" s="30"/>
+      <c r="R3" s="2"/>
+      <c r="S3" s="4"/>
       <c r="T3" s="5"/>
-      <c r="U3" s="4"/>
-    </row>
-    <row r="4" spans="1:27" ht="19.5">
+      <c r="U3" s="5"/>
+      <c r="V3" s="5"/>
+      <c r="W3" s="4"/>
+    </row>
+    <row r="4" spans="1:29" ht="19.5">
       <c r="A4" s="11"/>
       <c r="B4" s="11"/>
       <c r="C4" s="11"/>
@@ -979,20 +1030,22 @@
       <c r="I4" s="11"/>
       <c r="J4" s="11"/>
       <c r="K4" s="11"/>
-      <c r="L4" s="32" t="s">
+      <c r="L4" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="M4" s="32"/>
-      <c r="N4" s="32"/>
-      <c r="O4" s="19"/>
-      <c r="P4" s="2"/>
-      <c r="Q4" s="4"/>
-      <c r="R4" s="5"/>
-      <c r="S4" s="5"/>
+      <c r="M4" s="39"/>
+      <c r="N4" s="39"/>
+      <c r="O4" s="33"/>
+      <c r="P4" s="19"/>
+      <c r="Q4" s="30"/>
+      <c r="R4" s="2"/>
+      <c r="S4" s="4"/>
       <c r="T4" s="5"/>
-      <c r="U4" s="4"/>
-    </row>
-    <row r="5" spans="1:27" ht="19.5">
+      <c r="U4" s="5"/>
+      <c r="V4" s="5"/>
+      <c r="W4" s="4"/>
+    </row>
+    <row r="5" spans="1:29" ht="19.5">
       <c r="A5" s="11"/>
       <c r="B5" s="11"/>
       <c r="C5" s="11"/>
@@ -1004,20 +1057,22 @@
       <c r="I5" s="11"/>
       <c r="J5" s="11"/>
       <c r="K5" s="11"/>
-      <c r="L5" s="32" t="s">
+      <c r="L5" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="M5" s="32"/>
-      <c r="N5" s="32"/>
-      <c r="O5" s="19"/>
-      <c r="P5" s="2"/>
-      <c r="Q5" s="4"/>
-      <c r="R5" s="5"/>
-      <c r="S5" s="5"/>
+      <c r="M5" s="39"/>
+      <c r="N5" s="39"/>
+      <c r="O5" s="33"/>
+      <c r="P5" s="19"/>
+      <c r="Q5" s="30"/>
+      <c r="R5" s="2"/>
+      <c r="S5" s="4"/>
       <c r="T5" s="5"/>
-      <c r="U5" s="4"/>
-    </row>
-    <row r="6" spans="1:27">
+      <c r="U5" s="5"/>
+      <c r="V5" s="5"/>
+      <c r="W5" s="4"/>
+    </row>
+    <row r="6" spans="1:29">
       <c r="A6" s="11"/>
       <c r="B6" s="11"/>
       <c r="C6" s="11"/>
@@ -1033,39 +1088,43 @@
       <c r="M6" s="11"/>
       <c r="N6" s="11"/>
       <c r="O6" s="11"/>
-      <c r="P6" s="2"/>
-      <c r="Q6" s="4"/>
-      <c r="R6" s="5"/>
-      <c r="S6" s="5"/>
+      <c r="P6" s="11"/>
+      <c r="Q6" s="11"/>
+      <c r="R6" s="2"/>
+      <c r="S6" s="4"/>
       <c r="T6" s="5"/>
-      <c r="U6" s="4"/>
-    </row>
-    <row r="7" spans="1:27" ht="55.5" customHeight="1">
-      <c r="A7" s="34" t="s">
-        <v>66</v>
-      </c>
-      <c r="B7" s="34"/>
-      <c r="C7" s="34"/>
-      <c r="D7" s="34"/>
-      <c r="E7" s="34"/>
-      <c r="F7" s="34"/>
-      <c r="G7" s="34"/>
-      <c r="H7" s="34"/>
-      <c r="I7" s="34"/>
-      <c r="J7" s="34"/>
-      <c r="K7" s="34"/>
-      <c r="L7" s="34"/>
-      <c r="M7" s="34"/>
-      <c r="N7" s="34"/>
-      <c r="O7" s="18"/>
-      <c r="P7" s="2"/>
-      <c r="Q7" s="4"/>
-      <c r="R7" s="5"/>
-      <c r="S7" s="5"/>
+      <c r="U6" s="5"/>
+      <c r="V6" s="5"/>
+      <c r="W6" s="4"/>
+    </row>
+    <row r="7" spans="1:29" ht="55.5" customHeight="1">
+      <c r="A7" s="41" t="s">
+        <v>65</v>
+      </c>
+      <c r="B7" s="41"/>
+      <c r="C7" s="41"/>
+      <c r="D7" s="41"/>
+      <c r="E7" s="41"/>
+      <c r="F7" s="41"/>
+      <c r="G7" s="41"/>
+      <c r="H7" s="41"/>
+      <c r="I7" s="41"/>
+      <c r="J7" s="41"/>
+      <c r="K7" s="41"/>
+      <c r="L7" s="41"/>
+      <c r="M7" s="41"/>
+      <c r="N7" s="41"/>
+      <c r="O7" s="35"/>
+      <c r="P7" s="18"/>
+      <c r="Q7" s="32"/>
+      <c r="R7" s="2"/>
+      <c r="S7" s="4"/>
       <c r="T7" s="5"/>
-      <c r="U7" s="4"/>
-    </row>
-    <row r="8" spans="1:27">
+      <c r="U7" s="5"/>
+      <c r="V7" s="5"/>
+      <c r="W7" s="4"/>
+    </row>
+    <row r="8" spans="1:29">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -1081,94 +1140,104 @@
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
-      <c r="P8" s="2"/>
-      <c r="Q8" s="4"/>
-      <c r="R8" s="5"/>
-      <c r="S8" s="5"/>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="1"/>
+      <c r="R8" s="2"/>
+      <c r="S8" s="4"/>
       <c r="T8" s="5"/>
-      <c r="U8" s="4"/>
-    </row>
-    <row r="9" spans="1:27">
-      <c r="A9" s="31" t="s">
+      <c r="U8" s="5"/>
+      <c r="V8" s="5"/>
+      <c r="W8" s="4"/>
+    </row>
+    <row r="9" spans="1:29">
+      <c r="A9" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="31" t="s">
+      <c r="B9" s="38" t="s">
         <v>55</v>
       </c>
-      <c r="C9" s="31" t="s">
+      <c r="C9" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="D9" s="31" t="s">
+      <c r="D9" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="31"/>
-      <c r="F9" s="31"/>
-      <c r="G9" s="31" t="s">
+      <c r="E9" s="38"/>
+      <c r="F9" s="38"/>
+      <c r="G9" s="38" t="s">
         <v>57</v>
       </c>
-      <c r="H9" s="31" t="s">
+      <c r="H9" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="I9" s="31" t="s">
+      <c r="I9" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="J9" s="31" t="s">
+      <c r="J9" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="K9" s="31" t="s">
+      <c r="K9" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="L9" s="31" t="s">
+      <c r="L9" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="M9" s="31" t="s">
+      <c r="M9" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="N9" s="31" t="s">
+      <c r="N9" s="38" t="s">
         <v>58</v>
       </c>
-      <c r="O9" s="22"/>
-      <c r="P9" s="15"/>
-      <c r="Q9" s="4"/>
-      <c r="R9" s="5"/>
-      <c r="S9" s="5"/>
+      <c r="O9" s="42"/>
+      <c r="P9" s="22"/>
+      <c r="Q9" s="22"/>
+      <c r="R9" s="15"/>
+      <c r="S9" s="4"/>
       <c r="T9" s="5"/>
-      <c r="U9" s="4"/>
-    </row>
-    <row r="10" spans="1:27" ht="93" customHeight="1">
-      <c r="A10" s="31"/>
-      <c r="B10" s="31"/>
-      <c r="C10" s="31"/>
-      <c r="D10" s="30" t="s">
+      <c r="U9" s="5"/>
+      <c r="V9" s="5"/>
+      <c r="W9" s="4"/>
+    </row>
+    <row r="10" spans="1:29" ht="93" customHeight="1">
+      <c r="A10" s="38"/>
+      <c r="B10" s="38"/>
+      <c r="C10" s="38"/>
+      <c r="D10" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="E10" s="30" t="s">
+      <c r="E10" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="F10" s="30" t="s">
+      <c r="F10" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="G10" s="31"/>
-      <c r="H10" s="31"/>
-      <c r="I10" s="31"/>
-      <c r="J10" s="31"/>
-      <c r="K10" s="31"/>
-      <c r="L10" s="31"/>
-      <c r="M10" s="31"/>
-      <c r="N10" s="31"/>
-      <c r="O10" s="24" t="s">
+      <c r="G10" s="38"/>
+      <c r="H10" s="38"/>
+      <c r="I10" s="38"/>
+      <c r="J10" s="38"/>
+      <c r="K10" s="38"/>
+      <c r="L10" s="38"/>
+      <c r="M10" s="38"/>
+      <c r="N10" s="38"/>
+      <c r="O10" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="P10" s="16" t="s">
+      <c r="P10" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q10" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="R10" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="Q10" s="4"/>
-      <c r="R10" s="5"/>
-      <c r="S10" s="5"/>
+      <c r="S10" s="4"/>
       <c r="T10" s="5"/>
-      <c r="U10" s="4"/>
-    </row>
-    <row r="11" spans="1:27">
+      <c r="U10" s="5"/>
+      <c r="V10" s="5"/>
+      <c r="W10" s="4"/>
+    </row>
+    <row r="11" spans="1:29">
       <c r="A11" s="12" t="s">
         <v>18</v>
       </c>
@@ -1197,163 +1266,171 @@
         <v>51</v>
       </c>
       <c r="J11" s="14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K11" s="14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L11" s="14" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="M11" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="N11" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="O11" s="25" t="s">
-        <v>65</v>
-      </c>
-      <c r="P11" s="17"/>
-      <c r="Q11" s="4"/>
-      <c r="R11" s="5" t="s">
+      <c r="O11" s="43"/>
+      <c r="P11" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q11" s="24"/>
+      <c r="R11" s="17"/>
+      <c r="S11" s="4"/>
+      <c r="T11" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="S11" s="5" t="s">
+      <c r="U11" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="T11" s="5">
+      <c r="V11" s="5">
         <v>1</v>
       </c>
-      <c r="U11" s="5" t="s">
+      <c r="W11" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="V11" s="7"/>
-    </row>
-    <row r="12" spans="1:27">
-      <c r="A12" s="26" t="s">
+      <c r="X11" s="7"/>
+    </row>
+    <row r="12" spans="1:29">
+      <c r="A12" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="B12" s="27" t="s">
+      <c r="B12" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="C12" s="27" t="s">
+      <c r="C12" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="D12" s="27" t="s">
+      <c r="D12" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="E12" s="27" t="s">
+      <c r="E12" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="F12" s="27" t="s">
+      <c r="F12" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="G12" s="27" t="s">
+      <c r="G12" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="H12" s="28" t="s">
+      <c r="H12" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="I12" s="28" t="s">
+      <c r="I12" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="J12" s="28" t="s">
+      <c r="J12" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="K12" s="28" t="s">
+      <c r="K12" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="L12" s="28" t="s">
+      <c r="L12" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="M12" s="28" t="s">
+      <c r="M12" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="N12" s="28" t="s">
+      <c r="N12" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="O12" s="23"/>
-      <c r="P12" s="17"/>
-      <c r="Q12" s="4"/>
-      <c r="R12" s="8" t="s">
+      <c r="O12" s="36" t="s">
+        <v>70</v>
+      </c>
+      <c r="P12" s="36" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q12" s="37" t="s">
+        <v>69</v>
+      </c>
+      <c r="R12" s="17"/>
+      <c r="S12" s="4"/>
+      <c r="T12" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="S12" s="8" t="s">
+      <c r="U12" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="T12" s="8">
+      <c r="V12" s="8">
         <v>1</v>
       </c>
-      <c r="U12" s="8" t="s">
+      <c r="W12" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="V12" s="21" t="s">
+      <c r="X12" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="W12" s="21" t="s">
+      <c r="Y12" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="X12" s="21"/>
-      <c r="Y12" s="5" t="s">
+      <c r="Z12" s="21"/>
+      <c r="AA12" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="Z12" s="5" t="s">
+      <c r="AB12" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="AA12" s="5">
+      <c r="AC12" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:27" ht="18.75" customHeight="1">
-      <c r="R13" s="8" t="s">
+    <row r="13" spans="1:29" ht="18.75" customHeight="1">
+      <c r="T13" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="S13" s="8" t="s">
+      <c r="U13" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="T13" s="8">
+      <c r="V13" s="8">
         <v>4</v>
       </c>
-      <c r="U13" s="6" t="s">
+      <c r="W13" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="V13" s="9"/>
-      <c r="W13" s="9"/>
-    </row>
-    <row r="15" spans="1:27">
-      <c r="A15" s="29" t="s">
+      <c r="X13" s="9"/>
+      <c r="Y13" s="9"/>
+    </row>
+    <row r="15" spans="1:29">
+      <c r="A15" s="28" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="16" spans="1:27" ht="18" customHeight="1">
-      <c r="P16" s="3" t="s">
+    <row r="16" spans="1:29" ht="18" customHeight="1">
+      <c r="R16" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="Y16" s="8" t="s">
+      <c r="AA16" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="Z16" s="8" t="s">
+      <c r="AB16" s="8" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="18:28" ht="18" customHeight="1">
-      <c r="R17" s="5" t="s">
+    <row r="17" spans="20:30" ht="18" customHeight="1">
+      <c r="T17" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="S17" s="5" t="s">
+      <c r="U17" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="T17" s="5">
+      <c r="V17" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="18:28" ht="18.75" customHeight="1"/>
-    <row r="24" spans="18:28">
-      <c r="R24" s="9"/>
-      <c r="S24" s="9"/>
-      <c r="T24" s="10"/>
-      <c r="U24" s="10"/>
+    <row r="18" spans="20:30" ht="18.75" customHeight="1"/>
+    <row r="24" spans="20:30">
+      <c r="T24" s="9"/>
+      <c r="U24" s="9"/>
       <c r="V24" s="10"/>
       <c r="W24" s="10"/>
       <c r="X24" s="10"/>
@@ -1361,51 +1438,51 @@
       <c r="Z24" s="10"/>
       <c r="AA24" s="10"/>
       <c r="AB24" s="10"/>
-    </row>
-    <row r="25" spans="18:28">
-      <c r="R25" s="9"/>
-      <c r="S25" s="9"/>
+      <c r="AC24" s="10"/>
+      <c r="AD24" s="10"/>
+    </row>
+    <row r="25" spans="20:30">
       <c r="T25" s="9"/>
       <c r="U25" s="9"/>
-      <c r="V25" s="10"/>
-      <c r="W25" s="10"/>
+      <c r="V25" s="9"/>
+      <c r="W25" s="9"/>
       <c r="X25" s="10"/>
       <c r="Y25" s="10"/>
       <c r="Z25" s="10"/>
       <c r="AA25" s="10"/>
       <c r="AB25" s="10"/>
-    </row>
-    <row r="26" spans="18:28">
-      <c r="R26" s="9"/>
-      <c r="S26" s="9"/>
+      <c r="AC25" s="10"/>
+      <c r="AD25" s="10"/>
+    </row>
+    <row r="26" spans="20:30">
       <c r="T26" s="9"/>
       <c r="U26" s="9"/>
       <c r="V26" s="9"/>
       <c r="W26" s="9"/>
-      <c r="X26" s="10"/>
+      <c r="X26" s="9"/>
       <c r="Y26" s="9"/>
-      <c r="Z26" s="9"/>
+      <c r="Z26" s="10"/>
       <c r="AA26" s="9"/>
-      <c r="AB26" s="10"/>
-    </row>
-    <row r="27" spans="18:28">
-      <c r="R27" s="9"/>
-      <c r="S27" s="9"/>
+      <c r="AB26" s="9"/>
+      <c r="AC26" s="9"/>
+      <c r="AD26" s="10"/>
+    </row>
+    <row r="27" spans="20:30">
       <c r="T27" s="9"/>
-      <c r="U27" s="10"/>
-      <c r="V27" s="10"/>
+      <c r="U27" s="9"/>
+      <c r="V27" s="9"/>
       <c r="W27" s="10"/>
       <c r="X27" s="10"/>
       <c r="Y27" s="10"/>
       <c r="Z27" s="10"/>
       <c r="AA27" s="10"/>
       <c r="AB27" s="10"/>
-    </row>
-    <row r="28" spans="18:28">
-      <c r="R28" s="9"/>
-      <c r="S28" s="9"/>
-      <c r="T28" s="10"/>
-      <c r="U28" s="10"/>
+      <c r="AC27" s="10"/>
+      <c r="AD27" s="10"/>
+    </row>
+    <row r="28" spans="20:30">
+      <c r="T28" s="9"/>
+      <c r="U28" s="9"/>
       <c r="V28" s="10"/>
       <c r="W28" s="10"/>
       <c r="X28" s="10"/>
@@ -1413,36 +1490,36 @@
       <c r="Z28" s="10"/>
       <c r="AA28" s="10"/>
       <c r="AB28" s="10"/>
-    </row>
-    <row r="29" spans="18:28">
-      <c r="R29" s="9"/>
-      <c r="S29" s="9"/>
+      <c r="AC28" s="10"/>
+      <c r="AD28" s="10"/>
+    </row>
+    <row r="29" spans="20:30">
       <c r="T29" s="9"/>
       <c r="U29" s="9"/>
-      <c r="V29" s="10"/>
-      <c r="W29" s="10"/>
+      <c r="V29" s="9"/>
+      <c r="W29" s="9"/>
       <c r="X29" s="10"/>
-      <c r="Y29" s="9"/>
-      <c r="Z29" s="9"/>
+      <c r="Y29" s="10"/>
+      <c r="Z29" s="10"/>
       <c r="AA29" s="9"/>
-      <c r="AB29" s="10"/>
-    </row>
-    <row r="30" spans="18:28">
-      <c r="R30" s="9"/>
-      <c r="S30" s="9"/>
+      <c r="AB29" s="9"/>
+      <c r="AC29" s="9"/>
+      <c r="AD29" s="10"/>
+    </row>
+    <row r="30" spans="20:30">
       <c r="T30" s="9"/>
-      <c r="U30" s="10"/>
-      <c r="V30" s="10"/>
+      <c r="U30" s="9"/>
+      <c r="V30" s="9"/>
       <c r="W30" s="10"/>
       <c r="X30" s="10"/>
       <c r="Y30" s="10"/>
       <c r="Z30" s="10"/>
       <c r="AA30" s="10"/>
       <c r="AB30" s="10"/>
-    </row>
-    <row r="31" spans="18:28">
-      <c r="R31" s="10"/>
-      <c r="S31" s="10"/>
+      <c r="AC30" s="10"/>
+      <c r="AD30" s="10"/>
+    </row>
+    <row r="31" spans="20:30">
       <c r="T31" s="10"/>
       <c r="U31" s="10"/>
       <c r="V31" s="10"/>
@@ -1452,10 +1529,10 @@
       <c r="Z31" s="10"/>
       <c r="AA31" s="10"/>
       <c r="AB31" s="10"/>
-    </row>
-    <row r="32" spans="18:28">
-      <c r="R32" s="10"/>
-      <c r="S32" s="10"/>
+      <c r="AC31" s="10"/>
+      <c r="AD31" s="10"/>
+    </row>
+    <row r="32" spans="20:30">
       <c r="T32" s="10"/>
       <c r="U32" s="10"/>
       <c r="V32" s="10"/>
@@ -1465,10 +1542,10 @@
       <c r="Z32" s="10"/>
       <c r="AA32" s="10"/>
       <c r="AB32" s="10"/>
-    </row>
-    <row r="33" spans="18:28">
-      <c r="R33" s="10"/>
-      <c r="S33" s="10"/>
+      <c r="AC32" s="10"/>
+      <c r="AD32" s="10"/>
+    </row>
+    <row r="33" spans="20:30">
       <c r="T33" s="10"/>
       <c r="U33" s="10"/>
       <c r="V33" s="10"/>
@@ -1478,10 +1555,10 @@
       <c r="Z33" s="10"/>
       <c r="AA33" s="10"/>
       <c r="AB33" s="10"/>
-    </row>
-    <row r="34" spans="18:28">
-      <c r="R34" s="10"/>
-      <c r="S34" s="10"/>
+      <c r="AC33" s="10"/>
+      <c r="AD33" s="10"/>
+    </row>
+    <row r="34" spans="20:30">
       <c r="T34" s="10"/>
       <c r="U34" s="10"/>
       <c r="V34" s="10"/>
@@ -1491,19 +1568,15 @@
       <c r="Z34" s="10"/>
       <c r="AA34" s="10"/>
       <c r="AB34" s="10"/>
-    </row>
-    <row r="41" spans="18:28">
-      <c r="R41" s="8"/>
-      <c r="S41" s="8"/>
+      <c r="AC34" s="10"/>
+      <c r="AD34" s="10"/>
+    </row>
+    <row r="41" spans="20:30">
+      <c r="T41" s="8"/>
+      <c r="U41" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="N9:N10"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="J9:J10"/>
-    <mergeCell ref="K9:K10"/>
-    <mergeCell ref="L9:L10"/>
-    <mergeCell ref="M9:M10"/>
     <mergeCell ref="L1:N1"/>
     <mergeCell ref="A7:N7"/>
     <mergeCell ref="A9:A10"/>
@@ -1516,12 +1589,18 @@
     <mergeCell ref="D9:F9"/>
     <mergeCell ref="G9:G10"/>
     <mergeCell ref="H9:H10"/>
+    <mergeCell ref="N9:N10"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="K9:K10"/>
+    <mergeCell ref="L9:L10"/>
+    <mergeCell ref="M9:M10"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.39370078740157483" bottom="0.78740157480314965" header="0" footer="0"/>
   <pageSetup paperSize="9" scale="31" fitToHeight="1000" orientation="landscape" r:id="rId1"/>
   <colBreaks count="1" manualBreakCount="1">
-    <brk id="24" max="1048575" man="1"/>
+    <brk id="26" max="1048575" man="1"/>
   </colBreaks>
 </worksheet>
 </file>
